--- a/InitialData/Pedigrees.xlsx
+++ b/InitialData/Pedigrees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyux20\Documents\R-Project\mtDNA_mt2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyux20\Documents\R-Project\mtDNA_mt2\InitialData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB111D4-D4E5-420A-892F-5F4DBD7EC5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F99613-883B-409A-BFAE-8F7AAC573D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12580" yWindow="3540" windowWidth="16920" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,20 +120,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,41 +416,40 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="4" customWidth="1"/>
-    <col min="2" max="7" width="21.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="3" customWidth="1"/>
+    <col min="2" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -466,12 +464,14 @@
       <c r="E2" s="1">
         <v>0.75</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>17</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -486,12 +486,14 @@
       <c r="E3" s="1">
         <v>0.75</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>36</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -506,12 +508,14 @@
       <c r="E4" s="1">
         <v>0.75</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>66</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -526,12 +530,14 @@
       <c r="E5" s="1">
         <v>0.75</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>388</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -546,12 +552,14 @@
       <c r="E6" s="1">
         <v>0.75</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>9</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -566,12 +574,14 @@
       <c r="E7" s="1">
         <v>0.75</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -586,12 +596,14 @@
       <c r="E8" s="1">
         <v>0.75</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>21</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -606,12 +618,14 @@
       <c r="E9" s="1">
         <v>0.75</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>82</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -626,12 +640,14 @@
       <c r="E10" s="1">
         <v>0.75</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>184</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -646,12 +662,14 @@
       <c r="E11" s="1">
         <v>0.75</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>935</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -666,12 +684,14 @@
       <c r="E12" s="1">
         <v>0.75</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>82</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -686,12 +706,14 @@
       <c r="E13" s="1">
         <v>0.9</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>126</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -706,12 +728,14 @@
       <c r="E14" s="1">
         <v>0.75</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>3692</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -721,7 +745,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
